--- a/data/unchecked/manual_collect/malaysia/MalaysiaCaseStatistics_20200224.xlsx
+++ b/data/unchecked/manual_collect/malaysia/MalaysiaCaseStatistics_20200224.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\数据\海外\24日\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\COVID-19\data\unchecked\manual_collect\malaysia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9224" uniqueCount="3298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9222" uniqueCount="3296">
   <si>
     <t>统计级别</t>
   </si>
@@ -10281,56 +10281,6 @@
   </si>
   <si>
     <t>马来西亚</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2020/2/23 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上午</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>12:00:00</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2020/2/24 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上午</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>12:00:00</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2019%E5%86%A0%E7%8B%80%E7%97%85%E6%AF%92%E7%97%85%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E7%96%AB%E6%83%85#%E7%B4%AF%E8%A8%88%E7%A2%BA%E8%A8%BA%E3%80%81%E6%AD%BB%E4%BA%A1%E5%8F%8A%E5%BA%B7%E5%BE%A9%E5%80%8B%E6%A1%88%E8%B5%B0%E5%8B%A2%E5%9C%96</t>
@@ -10849,7 +10799,7 @@
   <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -11017,11 +10967,11 @@
       <c r="B2" s="19" t="s">
         <v>3290</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>3294</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>3295</v>
+      <c r="C2" s="22">
+        <v>43885</v>
+      </c>
+      <c r="D2" s="22">
+        <v>43886</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>3293</v>
@@ -11054,10 +11004,10 @@
       </c>
       <c r="X2" s="23"/>
       <c r="Y2" s="24" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
       <c r="AA2" s="19" t="s">
         <v>3291</v>
